--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:27:05+01:00</t>
+    <t>2023-03-23T14:41:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T14:41:29+01:00</t>
+    <t>2023-03-27T14:34:38+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4907,7 +4907,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>92</v>
@@ -6359,7 +6359,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>92</v>
@@ -7811,7 +7811,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>92</v>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-27T14:34:38+02:00</t>
+    <t>2023-03-28T14:13:32+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1070,7 +1070,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://fhir.loinc.org</t>
+    <t>https://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T14:13:32+02:00</t>
+    <t>2023-03-28T16:37:13+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T16:37:13+02:00</t>
+    <t>2023-03-28T22:15:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T22:15:03+02:00</t>
+    <t>2023-03-28T23:17:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3960" uniqueCount="595">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-28T23:17:42+02:00</t>
+    <t>2023-03-29T13:43:15+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -120,7 +120,7 @@
     <t>Abstract</t>
   </si>
   <si>
-    <t>false</t>
+    <t>true</t>
   </si>
   <si>
     <t>Derivation</t>
@@ -1270,8 +1270,8 @@
     <t>Observation.value[x]</t>
   </si>
   <si>
-    <t>Quantity
-CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>Actual result</t>
@@ -1290,6 +1290,9 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
     <t>ele-1
 obs-7</t>
   </si>
@@ -1310,10 +1313,6 @@
   </si>
   <si>
     <t>valueDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>Observation.value[x]:valueDateTime.id</t>
@@ -1825,6 +1824,10 @@
   </si>
   <si>
     <t>Observation.component.value[x]</t>
+  </si>
+  <si>
+    <t>Quantity
+CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
     <t>Actual component result</t>
@@ -10668,7 +10671,7 @@
         <v>82</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>146</v>
+        <v>411</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>404</v>
@@ -10680,7 +10683,7 @@
         <v>92</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>105</v>
@@ -10689,30 +10692,30 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>404</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>82</v>
@@ -10734,7 +10737,7 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>406</v>
@@ -10804,7 +10807,7 @@
         <v>92</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>82</v>
@@ -10813,19 +10816,19 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="72" hidden="true">
@@ -11094,7 +11097,7 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>425</v>
@@ -14110,16 +14113,16 @@
         <v>93</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>405</v>
+        <v>581</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>407</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>409</v>
@@ -14189,27 +14192,27 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP99" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14235,13 +14238,13 @@
         <v>198</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>432</v>
@@ -14272,10 +14275,10 @@
         <v>442</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -14293,7 +14296,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>80</v>
@@ -14328,10 +14331,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14415,7 +14418,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>80</v>
@@ -14450,10 +14453,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14479,10 +14482,10 @@
         <v>83</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>498</v>
@@ -14537,7 +14540,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T13:43:15+02:00</t>
+    <t>2023-03-30T02:04:17+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1070,7 +1070,7 @@
     <t>Observation.code.coding.system</t>
   </si>
   <si>
-    <t>https://loinc.org</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.code.coding.version</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T02:04:17+02:00</t>
+    <t>2023-03-30T13:05:19+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T13:05:19+02:00</t>
+    <t>2023-03-30T15:07:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T15:07:01+02:00</t>
+    <t>2023-03-30T17:28:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T17:28:47+02:00</t>
+    <t>2023-03-30T20:16:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T20:16:43+02:00</t>
+    <t>2023-03-31T11:28:30+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T11:28:30+02:00</t>
+    <t>2023-03-31T15:03:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-rv-year-of-birth.xlsx
+++ b/output/StructureDefinition-rv-year-of-birth.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T15:03:50+02:00</t>
+    <t>2023-04-02T11:40:39+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
